--- a/2. Estudio de Sumadores, Logisim/Time Analysis.xlsx
+++ b/2. Estudio de Sumadores, Logisim/Time Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lemus\Documents\GitHub\Parcial2--DiegoLemus\2. Estudio de Sumadores, Logisim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14341D38-AF4B-4270-BCD3-BE716672E47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3DE54A-5A4E-4CB1-95E2-D2ACC97E3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{70D0D7D9-4D92-40BE-A17E-46E21994A3DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70D0D7D9-4D92-40BE-A17E-46E21994A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Analysis Ripple" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACAE54E-2197-48F0-B19D-B7E155B065FA}">
   <dimension ref="I2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB512C3-A8B0-47B5-85AD-FCBF369F3D70}">
   <dimension ref="B2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
